--- a/module/mDrims-Reader/documents/origin/mdrims/교직/교직.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/교직/교직.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/teaching_profession/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\교직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_909734534A06024FD9156304C4712D6FFB2E83C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D7C95B-DF85-47D8-84F8-496E4DF023D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8D7AB-0CDE-45CD-906E-B1222E44AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="193">
   <si>
     <t>교과과정</t>
   </si>
@@ -61,237 +61,285 @@
     <t>ERC0001-02</t>
   </si>
   <si>
+    <t>수6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>ERC0001-03</t>
+  </si>
+  <si>
+    <t>화6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>ERC0001-04</t>
+  </si>
+  <si>
+    <t>목6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>ERC0001-05</t>
+  </si>
+  <si>
     <t>강유주</t>
   </si>
   <si>
-    <t>화9.5-11.0/17:30-19:15</t>
-  </si>
-  <si>
-    <t>ERC0001-03</t>
-  </si>
-  <si>
-    <t>전수빈</t>
+    <t>수10.0-11.5/18:00-19:40</t>
+  </si>
+  <si>
+    <t>ERC0002-01</t>
+  </si>
+  <si>
+    <t>교육심리</t>
+  </si>
+  <si>
+    <t>김명숙</t>
+  </si>
+  <si>
+    <t>월4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>ERC0002-02</t>
+  </si>
+  <si>
+    <t>목5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>ERC0002-03</t>
+  </si>
+  <si>
+    <t>목2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>ERC0002-04</t>
+  </si>
+  <si>
+    <t>이나경</t>
+  </si>
+  <si>
+    <t>월6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>ERC0002-05</t>
+  </si>
+  <si>
+    <t>월8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>ERC0003-01</t>
+  </si>
+  <si>
+    <t>교육철학및교육사</t>
+  </si>
+  <si>
+    <t>이경재</t>
+  </si>
+  <si>
+    <t>ERC0003-02</t>
+  </si>
+  <si>
+    <t>임광국</t>
+  </si>
+  <si>
+    <t>목7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>ERC0003-03</t>
+  </si>
+  <si>
+    <t>ERC0003-04</t>
+  </si>
+  <si>
+    <t>ERC0005-01</t>
+  </si>
+  <si>
+    <t>교육사회</t>
+  </si>
+  <si>
+    <t>김지연</t>
+  </si>
+  <si>
+    <t>수5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>ERC0005-02</t>
+  </si>
+  <si>
+    <t>수7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>ERC0005-03</t>
+  </si>
+  <si>
+    <t>조시화</t>
+  </si>
+  <si>
+    <t>수2.5-4.0/10:30-12:30</t>
+  </si>
+  <si>
+    <t>ERC0006-01</t>
+  </si>
+  <si>
+    <t>교육방법및교육공학</t>
+  </si>
+  <si>
+    <t>신나민</t>
+  </si>
+  <si>
+    <t>화3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>ERC0006-02</t>
+  </si>
+  <si>
+    <t>목3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>ERC0006-03</t>
+  </si>
+  <si>
+    <t>화8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>ERC0006-04</t>
+  </si>
+  <si>
+    <t>수8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>ERC0007-01</t>
+  </si>
+  <si>
+    <t>교육행정및교육경영</t>
+  </si>
+  <si>
+    <t>황은희</t>
+  </si>
+  <si>
+    <t>ERC0007-02</t>
+  </si>
+  <si>
+    <t>수9.0-10.5/17:00-18:50</t>
+  </si>
+  <si>
+    <t>ERC0007-03</t>
+  </si>
+  <si>
+    <t>심태은</t>
+  </si>
+  <si>
+    <t>ERC0007-04</t>
+  </si>
+  <si>
+    <t>ERC0011-01</t>
+  </si>
+  <si>
+    <t>교육과정</t>
+  </si>
+  <si>
+    <t>홍지완</t>
+  </si>
+  <si>
+    <t>목8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>ERC0011-02</t>
+  </si>
+  <si>
+    <t>ERC0011-03</t>
+  </si>
+  <si>
+    <t>이서인</t>
+  </si>
+  <si>
+    <t>월2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>ERC0011-04</t>
+  </si>
+  <si>
+    <t>ERC0012-01</t>
+  </si>
+  <si>
+    <t>교육평가</t>
+  </si>
+  <si>
+    <t>고은선</t>
+  </si>
+  <si>
+    <t>월9.5-11.0/17:30-19:15</t>
+  </si>
+  <si>
+    <t>ERC0012-02</t>
+  </si>
+  <si>
+    <t>목9.5-11.0/17:30-19:15</t>
+  </si>
+  <si>
+    <t>ERC0012-03</t>
+  </si>
+  <si>
+    <t>권재기</t>
+  </si>
+  <si>
+    <t>ERC0013-01</t>
+  </si>
+  <si>
+    <t>교직실무</t>
+  </si>
+  <si>
+    <t>이원춘</t>
   </si>
   <si>
     <t>월5.0-6.5/13:00-15:00</t>
   </si>
   <si>
-    <t>ERC0001-04</t>
-  </si>
-  <si>
-    <t>화7.0-8.5/15:00-17:00</t>
-  </si>
-  <si>
-    <t>ERC0001-05</t>
-  </si>
-  <si>
-    <t>목9.5-11.0/17:30-19:15</t>
-  </si>
-  <si>
-    <t>ERC0002-01</t>
-  </si>
-  <si>
-    <t>교육심리</t>
-  </si>
-  <si>
-    <t>김명숙</t>
-  </si>
-  <si>
-    <t>ERC0002-02</t>
-  </si>
-  <si>
-    <t>목5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>ERC0002-03</t>
-  </si>
-  <si>
-    <t>이나경</t>
-  </si>
-  <si>
-    <t>수7.5-9.0/15:30-17:30</t>
-  </si>
-  <si>
-    <t>ERC0002-04</t>
-  </si>
-  <si>
-    <t>ERC0003-02</t>
-  </si>
-  <si>
-    <t>교육철학및교육사</t>
-  </si>
-  <si>
-    <t>김주환</t>
-  </si>
-  <si>
-    <t>목2.0-3.5/10:00-12:00</t>
-  </si>
-  <si>
-    <t>ERC0003-03</t>
-  </si>
-  <si>
-    <t>목8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>ERC0003-04</t>
-  </si>
-  <si>
-    <t>조시화</t>
-  </si>
-  <si>
-    <t>ERC0005-01</t>
-  </si>
-  <si>
-    <t>교육사회</t>
-  </si>
-  <si>
-    <t>김지연</t>
-  </si>
-  <si>
-    <t>수5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>ERC0005-02</t>
-  </si>
-  <si>
-    <t>수7.0-8.5/15:00-17:00</t>
-  </si>
-  <si>
-    <t>ERC0005-03</t>
-  </si>
-  <si>
-    <t>월2.5-4.0/10:30-12:30</t>
-  </si>
-  <si>
-    <t>ERC0006-02</t>
-  </si>
-  <si>
-    <t>교육방법및교육공학</t>
-  </si>
-  <si>
-    <t>신나민</t>
-  </si>
-  <si>
-    <t>수3.0-4.5/11:00-13:00</t>
-  </si>
-  <si>
-    <t>ERC0006-03</t>
-  </si>
-  <si>
-    <t>ERC0007-01</t>
-  </si>
-  <si>
-    <t>교육행정및교육경영</t>
-  </si>
-  <si>
-    <t>박선형</t>
+    <t>ERC0013-02</t>
+  </si>
+  <si>
+    <t>ERC0013-03</t>
+  </si>
+  <si>
+    <t>오덕열</t>
+  </si>
+  <si>
+    <t>금5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>ERC0013-04</t>
+  </si>
+  <si>
+    <t>금7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>ERC0013-05</t>
+  </si>
+  <si>
+    <t>월10.0-11.5/18:00-19:40</t>
+  </si>
+  <si>
+    <t>ERC0018-01</t>
+  </si>
+  <si>
+    <t>생활지도및상담</t>
+  </si>
+  <si>
+    <t>박현주</t>
   </si>
   <si>
     <t>화8.0-9.5/16:00-18:00</t>
   </si>
   <si>
-    <t>ERC0007-02</t>
-  </si>
-  <si>
-    <t>화5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>ERC0011-01</t>
-  </si>
-  <si>
-    <t>교육과정</t>
-  </si>
-  <si>
-    <t>이서인</t>
-  </si>
-  <si>
-    <t>화5.5-7.0/13:30-15:30</t>
-  </si>
-  <si>
-    <t>ERC0011-02</t>
-  </si>
-  <si>
-    <t>홍지완</t>
-  </si>
-  <si>
-    <t>ERC0011-03</t>
-  </si>
-  <si>
-    <t>ERC0012-01</t>
-  </si>
-  <si>
-    <t>교육평가</t>
-  </si>
-  <si>
-    <t>고은선</t>
-  </si>
-  <si>
-    <t>ERC0012-03</t>
-  </si>
-  <si>
-    <t>권재기</t>
-  </si>
-  <si>
-    <t>월3.0-4.5/11:00-13:00</t>
-  </si>
-  <si>
-    <t>ERC0013-01</t>
-  </si>
-  <si>
-    <t>교직실무</t>
-  </si>
-  <si>
-    <t>이원춘</t>
-  </si>
-  <si>
-    <t>ERC0013-02</t>
-  </si>
-  <si>
-    <t>목6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>ERC0013-03</t>
-  </si>
-  <si>
-    <t>오덕열</t>
-  </si>
-  <si>
-    <t>금5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>ERC0013-04</t>
-  </si>
-  <si>
-    <t>이경재</t>
-  </si>
-  <si>
-    <t>수9.5-11.0/17:30-19:15</t>
-  </si>
-  <si>
-    <t>ERC0013-05</t>
-  </si>
-  <si>
-    <t>금7.0-8.5/15:00-17:00</t>
-  </si>
-  <si>
-    <t>ERC0018-01</t>
-  </si>
-  <si>
-    <t>생활지도및상담</t>
-  </si>
-  <si>
-    <t>박현주</t>
-  </si>
-  <si>
-    <t>수6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
     <t>ERC0018-02</t>
   </si>
   <si>
     <t>김병관</t>
   </si>
   <si>
+    <t>ERC0018-03</t>
+  </si>
+  <si>
+    <t>ERC0018-04</t>
+  </si>
+  <si>
     <t>ERC0019-01</t>
   </si>
   <si>
@@ -301,30 +349,21 @@
     <t>이효정</t>
   </si>
   <si>
-    <t>화2.5-4.0/10:30-12:30</t>
-  </si>
-  <si>
     <t>ERC0019-02</t>
   </si>
   <si>
-    <t>수2.5-4.0/10:30-12:30</t>
+    <t>심성용</t>
+  </si>
+  <si>
+    <t>화4.0-5.5/12:00-14:00</t>
   </si>
   <si>
     <t>ERC0019-03</t>
   </si>
   <si>
-    <t>심성용</t>
-  </si>
-  <si>
-    <t>화4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
     <t>ERC0019-04</t>
   </si>
   <si>
-    <t>화6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
     <t>ERC0019-05</t>
   </si>
   <si>
@@ -334,27 +373,18 @@
     <t>학교폭력예방및학생의이해</t>
   </si>
   <si>
+    <t>ERC0020-02</t>
+  </si>
+  <si>
     <t>최은영</t>
   </si>
   <si>
-    <t>ERC0020-02</t>
-  </si>
-  <si>
-    <t>화7.5-9.0/15:30-17:30</t>
-  </si>
-  <si>
     <t>ERC0020-03</t>
   </si>
   <si>
-    <t>목5.5-7.0/13:30-15:30</t>
-  </si>
-  <si>
     <t>ERC0020-04</t>
   </si>
   <si>
-    <t>목7.5-9.0/15:30-17:30</t>
-  </si>
-  <si>
     <t>ERC0022-01</t>
   </si>
   <si>
@@ -370,31 +400,52 @@
     <t>교육봉사활동2</t>
   </si>
   <si>
+    <t>ERC0024-01</t>
+  </si>
+  <si>
+    <t>학교현장실습1(참관실습)</t>
+  </si>
+  <si>
+    <t>한송이</t>
+  </si>
+  <si>
+    <t>수7.0-7.5/15:00-16:00</t>
+  </si>
+  <si>
+    <t>ERC0025-01</t>
+  </si>
+  <si>
+    <t>학교현장실습2(수업실습)</t>
+  </si>
+  <si>
+    <t>수8.0-8.5/16:00-17:00</t>
+  </si>
+  <si>
     <t>ERC0026-01</t>
   </si>
   <si>
     <t>학교현장실습3(종합실습)</t>
   </si>
   <si>
-    <t>ERC2034-01</t>
-  </si>
-  <si>
-    <t>종교교재연구및지도법</t>
+    <t>ERC1034-01</t>
+  </si>
+  <si>
+    <t>종교교육론</t>
   </si>
   <si>
     <t>문현공(혜원)</t>
   </si>
   <si>
-    <t>월4.0-6.5/12:00-15:00</t>
+    <t>월5.5-8.0/13:30-16:30</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>ERC2035-01</t>
-  </si>
-  <si>
-    <t>철학교재연구및지도법</t>
+    <t>ERC1035-01</t>
+  </si>
+  <si>
+    <t>철학교육론</t>
   </si>
   <si>
     <t>이고경</t>
@@ -403,22 +454,34 @@
     <t>월10.0-12.5/18:00-20:30</t>
   </si>
   <si>
-    <t>ERC2036-01</t>
-  </si>
-  <si>
-    <t>영어교재연구및지도법</t>
-  </si>
-  <si>
-    <t>신정아</t>
-  </si>
-  <si>
-    <t>수5.5-8.0/13:30-16:30</t>
-  </si>
-  <si>
-    <t>ERC2040-01</t>
-  </si>
-  <si>
-    <t>물리교재연구및지도법</t>
+    <t>ERC1036-01</t>
+  </si>
+  <si>
+    <t>영어교육론</t>
+  </si>
+  <si>
+    <t>김수미</t>
+  </si>
+  <si>
+    <t>금5.5-8.0/13:30-16:30</t>
+  </si>
+  <si>
+    <t>ERC1038-01</t>
+  </si>
+  <si>
+    <t>중국어교육론</t>
+  </si>
+  <si>
+    <t>최려홍</t>
+  </si>
+  <si>
+    <t>수7.5-10.0/15:30-18:25</t>
+  </si>
+  <si>
+    <t>ERC1040-01</t>
+  </si>
+  <si>
+    <t>물리교육론</t>
   </si>
   <si>
     <t>김형상</t>
@@ -427,34 +490,67 @@
     <t>월7.5-10.0/15:30-18:25</t>
   </si>
   <si>
-    <t>ERC2041-01</t>
-  </si>
-  <si>
-    <t>화학교재연구및지도법</t>
+    <t>ERC1041-01</t>
+  </si>
+  <si>
+    <t>화학교육론</t>
   </si>
   <si>
     <t>이종혁</t>
   </si>
   <si>
-    <t>수6.0-8.5/14:00-17:00</t>
-  </si>
-  <si>
-    <t>ERC2042-01</t>
-  </si>
-  <si>
-    <t>일반사회교재연구및지도법</t>
+    <t>월1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>ERC1042-01</t>
+  </si>
+  <si>
+    <t>일반사회교육론</t>
   </si>
   <si>
     <t>서창훈</t>
   </si>
   <si>
-    <t>수2.5-5.0/10:30-13:30</t>
-  </si>
-  <si>
-    <t>ERC2045-01</t>
-  </si>
-  <si>
-    <t>생물교재연구및지도법</t>
+    <t>금1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>ERC1043-01</t>
+  </si>
+  <si>
+    <t>상업교육론</t>
+  </si>
+  <si>
+    <t>홍승원</t>
+  </si>
+  <si>
+    <t>화10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>ERC1048-01</t>
+  </si>
+  <si>
+    <t>연극영화교육론</t>
+  </si>
+  <si>
+    <t>수10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>ERC1049-01</t>
+  </si>
+  <si>
+    <t>미술교육론</t>
+  </si>
+  <si>
+    <t>김지균</t>
+  </si>
+  <si>
+    <t>수1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>ERC1050-01</t>
+  </si>
+  <si>
+    <t>생명과학교육론</t>
   </si>
   <si>
     <t>김선정</t>
@@ -463,40 +559,25 @@
     <t>수1.5-4.0/09:30-12:30</t>
   </si>
   <si>
-    <t>ERC2048-01</t>
-  </si>
-  <si>
-    <t>미술교재연구및지도법</t>
-  </si>
-  <si>
-    <t>김지균</t>
-  </si>
-  <si>
-    <t>수1.0-3.5/09:00-12:00</t>
-  </si>
-  <si>
-    <t>ERC2049-01</t>
-  </si>
-  <si>
-    <t>중국어교재연구및지도법</t>
-  </si>
-  <si>
-    <t>서미령</t>
-  </si>
-  <si>
-    <t>목7.0-9.5/15:00-18:00</t>
-  </si>
-  <si>
-    <t>ERC2050-01</t>
-  </si>
-  <si>
-    <t>연극영화교재연구및지도법</t>
-  </si>
-  <si>
-    <t>안형민</t>
-  </si>
-  <si>
-    <t>수10.0-12.5/18:00-20:30</t>
+    <t>ERC1051-01</t>
+  </si>
+  <si>
+    <t>통합사회교육론</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>금6.0-8.5/14:00-17:00</t>
+  </si>
+  <si>
+    <t>ERC1052-01</t>
+  </si>
+  <si>
+    <t>통합과학교육론</t>
+  </si>
+  <si>
+    <t>수8.0-10.5/16:00-18:50</t>
   </si>
   <si>
     <t>ERC2054-01</t>
@@ -511,49 +592,10 @@
     <t>금2.0-4.5/10:00-13:00</t>
   </si>
   <si>
-    <t>ERC2055-01</t>
-  </si>
-  <si>
-    <t>통합사회교재연구및지도법</t>
-  </si>
-  <si>
-    <t>이서영</t>
-  </si>
-  <si>
-    <t>목5.5-8.0/13:30-16:30</t>
-  </si>
-  <si>
-    <t>ERC2057-01</t>
-  </si>
-  <si>
-    <t>상업교재연구및지도법</t>
-  </si>
-  <si>
-    <t>홍승원</t>
-  </si>
-  <si>
-    <t>월10.5-13.0/18:25-21:05</t>
-  </si>
-  <si>
-    <t>ERC3010-01</t>
-  </si>
-  <si>
-    <t>메이커교육의이론과실천</t>
-  </si>
-  <si>
-    <t>한송이</t>
-  </si>
-  <si>
-    <t>월6.5-8.0/14:30-16:30</t>
-  </si>
-  <si>
-    <t>ERC3011-01</t>
-  </si>
-  <si>
-    <t>교육현장의이해</t>
-  </si>
-  <si>
-    <t>화10.0-11.5/18:00-19:40</t>
+    <t>ERC3009-01</t>
+  </si>
+  <si>
+    <t>에듀테크와미래교육</t>
   </si>
   <si>
     <t>*</t>
@@ -955,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -963,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1033,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1053,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1064,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1073,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1093,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,13 +1169,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
@@ -1147,16 +1189,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,19 +1206,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,19 +1226,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,19 +1246,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1227,7 +1269,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -1236,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,19 +1286,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,19 +1306,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,19 +1346,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1324,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1336,7 +1378,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,19 +1406,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1384,19 +1426,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,19 +1446,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1436,7 +1478,7 @@
         <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1444,19 +1486,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,19 +1506,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,19 +1526,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,19 +1546,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,19 +1566,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,19 +1586,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,19 +1626,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1604,19 +1646,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1624,19 +1666,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,19 +1686,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,19 +1706,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1684,19 +1726,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,19 +1746,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,19 +1766,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,19 +1786,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1764,19 +1806,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,19 +1826,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,19 +1846,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,19 +1866,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,19 +1886,19 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,19 +1906,19 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,19 +1926,19 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,19 +1946,19 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,19 +1966,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1944,19 +1986,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,19 +2006,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,19 +2026,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,19 +2046,19 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,19 +2066,19 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,19 +2086,19 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,19 +2106,19 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,19 +2126,19 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2104,19 +2146,19 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,19 +2166,19 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,19 +2186,259 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="D67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>177</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
